--- a/United Civil/21855/res_J3161 BR217 Project ITP.xlsx
+++ b/United Civil/21855/res_J3161 BR217 Project ITP.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\United Civil\21855\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EE9CE0-866A-4607-B9E7-A0FB2D2B4001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F59D0E-6266-43A1-9F81-5CC157858FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7950" yWindow="360" windowWidth="29865" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8010" yWindow="705" windowWidth="29865" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res_ITP_1_Inspection_and_Test_P" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res_ITP_1_Inspection_and_Test_P!$A$1:$H$413</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="198">
   <si>
     <t>type</t>
   </si>
@@ -62,37 +65,571 @@
     <t>itp</t>
   </si>
   <si>
-    <t>checklist-flat</t>
-  </si>
-  <si>
     <t>checkpoint</t>
   </si>
   <si>
-    <t>Preliminaries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activity Task: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acceptance Criteria: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frequency: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certifying Documentation, Record or Checksheet: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internal Verification Authority or Responsibility: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Critical Hold Point Authority: </t>
-  </si>
-  <si>
     <t>label</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1.1 - </t>
+    <t>1.1.1 - Shop Drawings</t>
+  </si>
+  <si>
+    <t>ITP - Structural Steel Fabrication</t>
+  </si>
+  <si>
+    <t>Structural Steel Fabrication</t>
+  </si>
+  <si>
+    <t>checklist</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>1.3.1 - Welding Personnel Qualifications</t>
+  </si>
+  <si>
+    <t>RI: PM</t>
+  </si>
+  <si>
+    <t>1.1 - Preliminaries: Method &amp; Documentation</t>
+  </si>
+  <si>
+    <t>1.2 - Preliminaries: Material Compliance</t>
+  </si>
+  <si>
+    <t>1.3 - Preliminaries: Welding Procedures &amp; Certification</t>
+  </si>
+  <si>
+    <t>1.4 - Preliminaries: Corrosion Protection System</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria: Submit electronic copies of shop drawings, providing complete details of each assembley with respect to the steelwork fabrication, surface treatment and erection.</t>
+  </si>
+  <si>
+    <t>Method: Review</t>
+  </si>
+  <si>
+    <t>Frequency: Per Assembly</t>
+  </si>
+  <si>
+    <t>Verification Activity By - Eastbridge: H</t>
+  </si>
+  <si>
+    <t>Verification Activity By - Contractor: H</t>
+  </si>
+  <si>
+    <t>Verification Activity By - Client Rep: H</t>
+  </si>
+  <si>
+    <t>Verifying Record: Notice to Contractor: Permission to Fabricate</t>
+  </si>
+  <si>
+    <t>holdpoint</t>
+  </si>
+  <si>
+    <t>HOLD POINT</t>
+  </si>
+  <si>
+    <t>1.1.2 - Independent Welding Inspector</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria: Submit Third Party welding inspection entity, appropriately qualified in the welding inspection required by the Project.</t>
+  </si>
+  <si>
+    <t>Frequency: Once</t>
+  </si>
+  <si>
+    <t>Verifying Record: Approved Independent Welding Inspector</t>
+  </si>
+  <si>
+    <t>1.2.1 - Structural Steel Grades</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria: Project Specification</t>
+  </si>
+  <si>
+    <t>Applicable Standard and/or Technical Requirement: AS/NZS 3678, AS/NZS 3679.1</t>
+  </si>
+  <si>
+    <t>Frequency: Per Material Order</t>
+  </si>
+  <si>
+    <t>Verification Activity By - Client Rep: R</t>
+  </si>
+  <si>
+    <t>Verifying Record: Shop Drawings &amp; Mill Certificates</t>
+  </si>
+  <si>
+    <t>1.2.2 - Structural Bolts</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria: Bolts will be sourced in accordance with NZS 1252:2016, All bolts are to be high strength steel bolts of grade 8.8 or higher, uno.</t>
+  </si>
+  <si>
+    <t>Applicable Standard and/or Technical Requirement: NZS 1252:1996</t>
+  </si>
+  <si>
+    <t>Verifying Record: Material Conformance Certificates</t>
+  </si>
+  <si>
+    <t>1.2.3 - Shear Studs</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria: All shear studs be produced in accordance with AS/NZS 1554.2:2003, with the relevant mill certificates and testing records, including mill certificates to which they will be connected proving prequalification of welds.</t>
+  </si>
+  <si>
+    <t>Applicable Standard and/or Technical Requirement: AS/NZS 1554.2:2003</t>
+  </si>
+  <si>
+    <t>1.2.4 - Structural Steel Supply Traceability</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria: Refer Project Specification, All Plates are to be produced in accordance with NZS 5131 will mill certificates meeting the relevant grades given in 1.2.1.</t>
+  </si>
+  <si>
+    <t>Applicable Standard and/or Technical Requirement: AS/NZS 5131</t>
+  </si>
+  <si>
+    <t>Verifying Record: ACRS or JAS-ANZ Mill Certificatoin Certificates</t>
+  </si>
+  <si>
+    <t>1.2.5 - Verified Mill Certificates</t>
+  </si>
+  <si>
+    <t>Applicable Standard and/or Technical Requirement: Project Specification</t>
+  </si>
+  <si>
+    <t>Frequency: Per Mill Certificate</t>
+  </si>
+  <si>
+    <t>Verifying Record: ILAC Endorsment</t>
+  </si>
+  <si>
+    <t>1.2.6 - Structural Steel &amp; Bolt Third Party Testing</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria: 3 No. samples from each batch of structural steel tested for mechanical and chemical properties at a certified IANZ lab in NZ, and the results submitted to the Engineer</t>
+  </si>
+  <si>
+    <t>Method: Material Test</t>
+  </si>
+  <si>
+    <t>Frequency: Per Batch</t>
+  </si>
+  <si>
+    <t>Verifying Record: IANZ Laboratory Test Report</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria: Review of proposed welders and their welding certificates and qualifications</t>
+  </si>
+  <si>
+    <t>Applicable Standard and/or Technical Requirement: AS/NZS ISO9606.1:2017</t>
+  </si>
+  <si>
+    <t>Frequency: Per Welder</t>
+  </si>
+  <si>
+    <t>Verification Activity By - Contractor: R</t>
+  </si>
+  <si>
+    <t>Verifying Record: Personnel Welding Qualification Certificates</t>
+  </si>
+  <si>
+    <t>1.3.2 - Welding Procedure Specification (WPS)</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria: Pre-qualified to AS/NZS 1554.1:2014 as a minimum.</t>
+  </si>
+  <si>
+    <t>Applicable Standard and/or Technical Requirement: AS/NZS 1554.1:2014:2014</t>
+  </si>
+  <si>
+    <t>Method: PQR</t>
+  </si>
+  <si>
+    <t>Frequency: Per WPS</t>
+  </si>
+  <si>
+    <t>Verifying Record: Procedure Qualification Record</t>
+  </si>
+  <si>
+    <t>1.3.3 - Independent Review of WPS</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria: Review by nominated IWI of WPS and PQR</t>
+  </si>
+  <si>
+    <t>Verification Activity By - Eastbridge: R</t>
+  </si>
+  <si>
+    <t>Verifying Record: Independent Review Record</t>
+  </si>
+  <si>
+    <t>1.4.1 - Coating Applicator</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria: Contractors are required to be accredited under the Australian Paint Contractors Certification Program (PCCP)</t>
+  </si>
+  <si>
+    <t>Verifying Record: Coating Applicators Accreditation Certificate</t>
+  </si>
+  <si>
+    <t>1.4.2 - Coating Specifier</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria: Qualification to one of the following:</t>
+  </si>
+  <si>
+    <t>Verifying Record: Coating Specifier Qualification Certificate</t>
+  </si>
+  <si>
+    <t>• NACE Protective Coating Specialist</t>
+  </si>
+  <si>
+    <t>• Australasian Corrosion Association</t>
+  </si>
+  <si>
+    <t>• (ACA) Technician or Technologist with successful completion of the ACA's Coating Selection and Specification Course and/or certified to NAC Coating Inspection Program (CIP) Level 2</t>
+  </si>
+  <si>
+    <t>1.4.3 - Coating Specification</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria: Painting specification approved by an independent paint inspector. Note, only coatings approved by an independent body such as APAS, NEPCOAT or NORSOK shall be used.</t>
+  </si>
+  <si>
+    <t>Verifying Record: Approved Paint Specification from Independent Paint</t>
+  </si>
+  <si>
+    <t>2 - Receiving &amp; Storage of Parent Metals</t>
+  </si>
+  <si>
+    <t>2.1 - Material Receiving into Store</t>
+  </si>
+  <si>
+    <t>3 - Fabrication: Cutting, Holing &amp; Bending</t>
+  </si>
+  <si>
+    <t>4 - Welding</t>
+  </si>
+  <si>
+    <t>5 - Welding Inspection &amp; NDT</t>
+  </si>
+  <si>
+    <t>6 - Post Fabrication</t>
+  </si>
+  <si>
+    <t>Sign Off</t>
+  </si>
+  <si>
+    <t>textbox</t>
+  </si>
+  <si>
+    <t>ITP Sign Off for Construction</t>
+  </si>
+  <si>
+    <t>Project Engineer:</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>All works completed, records attached and work conforming</t>
+  </si>
+  <si>
+    <t>Site Engineer:</t>
+  </si>
+  <si>
+    <t>Quality Manager:</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria: All incoming mateials shall be inspected for conformance to the requirements of the Project and heat numbers checked against mill certificates</t>
+  </si>
+  <si>
+    <t>Applicable Standard and/or Technical Requirement: PQP "Material Receiving" NZS3404.2:2009, 2.2.2</t>
+  </si>
+  <si>
+    <t>Method: Inspection</t>
+  </si>
+  <si>
+    <t>Verification Activity By - Eastbridge: I</t>
+  </si>
+  <si>
+    <t>Verifying Record: Material Receipt Certification</t>
+  </si>
+  <si>
+    <t>2.2 - Storage</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria: Materials shall be kept free from dirt, grease and other foreign matter and protected from corrosion as far as possible and shall be stored above ground on platforms, skids or other supports.</t>
+  </si>
+  <si>
+    <t>3.1 - Sharp Edges</t>
+  </si>
+  <si>
+    <t>RI: FSUP</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria: Rounded to a 2 mm radius by grinding after fabrication to ensure that a protective coating of normal thickness will adhere to the edges</t>
+  </si>
+  <si>
+    <t>Applicable Standard and/or Technical Requirement: AS/NZS 5131:2016 - Sect 6.5.4</t>
+  </si>
+  <si>
+    <t>Frequency: Per Section</t>
+  </si>
+  <si>
+    <t>Verifying Record: Eastrbidge Standard Fabrication Checksheet</t>
+  </si>
+  <si>
+    <t>3.2 - As-Cut Surfaces</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria: Australian Welding Research Association Class 2 surface</t>
+  </si>
+  <si>
+    <t>Applicable Standard and/or Technical Requirement: AS/NZS 5131:2016 - Sect 6.5.2 Table 6.5</t>
+  </si>
+  <si>
+    <t>3.3 - Re-Entrant Corners</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria: Shaped notch free to a minimum radius of 10 mm unless specifically indicated otherwise by geometry detail or as indicated on the drawings</t>
+  </si>
+  <si>
+    <t>Applicable Standard and/or Technical Requirement: AS/NZS 5131:2016 - Sect 6.5.3</t>
+  </si>
+  <si>
+    <t>3.4 - Holing</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria: Standard holes for bolts shall be D+2mm unless otherwise noted. Slotted holes shall be D=2mm wide and 2.5D long unless otherwise noted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Standard holes for pins shall be D+1mm unless otherwise noted. </t>
+  </si>
+  <si>
+    <t>• In the event of misalignment of bolt holes at any joint, reaming or drilling to more than 1.5mm larger than the bolt diameter will not be permitted unless specifically approved by the Engineer</t>
+  </si>
+  <si>
+    <t>Applicable Standard and/or Technical Requirement: AS/NZS 5131:2016 - Sect 6.7</t>
+  </si>
+  <si>
+    <t>Verifying Record: Eastbridge Standard Fabrication Checksheet</t>
+  </si>
+  <si>
+    <t>3.5 - Shaping</t>
+  </si>
+  <si>
+    <t>Applicable Standard and/or Technical Requirement: AS/NZS 5131:2016 - Sect 6.6</t>
+  </si>
+  <si>
+    <t>Verifying Record: Eastbridge Standard Welding Checksheet</t>
+  </si>
+  <si>
+    <t>3.6 - Markings &amp; Identification</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria: Steelwork markings and indentification is correct as per shop drawings</t>
+  </si>
+  <si>
+    <t>Applicable Standard and/or Technical Requirement: NZS 3404.1</t>
+  </si>
+  <si>
+    <t>4.1 - Check Welding Consumables</t>
+  </si>
+  <si>
+    <t>RI: EBWI</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria: Consumables to be stored in accordance with the manufacturers specification</t>
+  </si>
+  <si>
+    <t>Applicable Standard and/or Technical Requirement: AS/NZS 1554.1:2014, AS/NZS 5131:2016 Sect 7.5.2</t>
+  </si>
+  <si>
+    <t>Verification Activity By - Eastbridge: W</t>
+  </si>
+  <si>
+    <t>Verifying Record: Approved Weld Testing Regime</t>
+  </si>
+  <si>
+    <t>4.2 - Welding Plan</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria: Considerations for all welding to made in respect to Section 7.2.2 for all welding related matters</t>
+  </si>
+  <si>
+    <t>Applicable Standard and/or Technical Requirement: AS/NZS 1554.1:2014, AS/NZS 5131:2016 Sect 7.2</t>
+  </si>
+  <si>
+    <t>Verifying Record: Visual Scanning Weld Report</t>
+  </si>
+  <si>
+    <t>4.3 - Allocate welders to specific welds</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria: Welders to be qualified in accordance with AS/NZS ISO9606.1:2017</t>
+  </si>
+  <si>
+    <t>Applicable Standard and/or Technical Requirement: AS/NZS 1554.1:2014, AS/NZS ISO9606.1:2017</t>
+  </si>
+  <si>
+    <t>Frequency: 100%</t>
+  </si>
+  <si>
+    <t>Verifying Record: Visual Examination Weld Report</t>
+  </si>
+  <si>
+    <t>4.4 - Pre-weld inspections</t>
+  </si>
+  <si>
+    <t>RI: IWCI</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria: Pre-weld inspections shall be made in accordance with Section 7.5.4</t>
+  </si>
+  <si>
+    <t>Applicable Standard and/or Technical Requirement: AS/NZS 1554.1:2014, AS/NZS 5131:2016 Sect. 7.5.4</t>
+  </si>
+  <si>
+    <t>Verifying Record: Non-Destructive Testing Weld Report</t>
+  </si>
+  <si>
+    <t>4.5 - Welder traceability</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria: Welders to be traceable in accordance with Table 7.4 - CC4</t>
+  </si>
+  <si>
+    <t>Applicable Standard and/or Technical Requirement: AS/NZS 1554.1:2014, AS/NZS5131:2016 Sect 7.4.3 Table 7.4</t>
+  </si>
+  <si>
+    <t>Verification Activity By - Eastbridge: S</t>
+  </si>
+  <si>
+    <t>Verifying Record: Ultrasonic Weld Report</t>
+  </si>
+  <si>
+    <t>4.6 - Stud Welding</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria: Welders to be selected in accordance with AS/NZS 1554.2:2003</t>
+  </si>
+  <si>
+    <t>Applicable Standard and/or Technical Requirement: AS/NZS, AS/NZS 1554.2:2003 5131:2016 Sect. 5.6 &amp; 7.5.11</t>
+  </si>
+  <si>
+    <t>5.1 - Weld Testing Regime</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria: Generally, spread across all weld types, all welders and multiple welds of the same type.</t>
+  </si>
+  <si>
+    <t>Applicable Standard and/or Technical Requirement: AS/NZS 1554.1:2014</t>
+  </si>
+  <si>
+    <t>5.2 - Weld Integrity: Visual Scanning</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria: Weld location is as per shop drawing for each section</t>
+  </si>
+  <si>
+    <t>5.3 - Weld Integrity: Visual Examination</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria: Table 6.2.2: Permissible levels of imperfections in butt and fillet welds as determined by visual, magenetic particle and liquid penetrant examination of the weld zone</t>
+  </si>
+  <si>
+    <t>5.4 - Weld Integrity: Magnetic Particle Inspection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Criteria: Structural fillet welds only </t>
+  </si>
+  <si>
+    <t>• Table 6.2.2: Permissible levels of imperfections in butt and fillet welds as determined by visual, magenetic particle and liquid penetrant examination of the weld zone</t>
+  </si>
+  <si>
+    <t>Method: MPI</t>
+  </si>
+  <si>
+    <t>Frequency: 25%</t>
+  </si>
+  <si>
+    <t>5.5 - Weld Integrity: Ultrasonic Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Criteria: Structural butt welds only </t>
+  </si>
+  <si>
+    <t>• Table 6.2.1: Permissible levels of imperfections as determined by radiograpic or ultrasonic examination for welds of category SP</t>
+  </si>
+  <si>
+    <t>Applicable Standard and/or Technical Requirement: AS/NZS 1554.1:2014, AS 2207</t>
+  </si>
+  <si>
+    <t>Method: UT</t>
+  </si>
+  <si>
+    <t>5.6 - Stud Welds: Ring Testing</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria: "Ring" sound of stud when tapped with a 3kg hammer in the direction of the beam.</t>
+  </si>
+  <si>
+    <t>• If stud gives a "'dead' sound, the test is failed.</t>
+  </si>
+  <si>
+    <t>Method: Ring Test</t>
+  </si>
+  <si>
+    <t>5.7 - Stud Welds: Bend Testing</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria: No evidence of fracture under bending 15 degrees from original axis</t>
+  </si>
+  <si>
+    <t>• First and second for each production weld set-up followed by specified frequency</t>
+  </si>
+  <si>
+    <t>Method: Bend Test</t>
+  </si>
+  <si>
+    <t>Frequency: 1 in 50</t>
+  </si>
+  <si>
+    <t>5.8 - Fabricated Condition</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria: Ensure slag, spatter, scale and flux has been removed and general appearance is acceptable</t>
+  </si>
+  <si>
+    <t>6.1 - Final Inspection</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria: Ensure all inspections and tests are completed, all reports and documentation are available and all results comply with the requirements</t>
+  </si>
+  <si>
+    <t>Applicable Standard and/or Technical Requirement: –</t>
+  </si>
+  <si>
+    <t>Frequency: Per Dispatch</t>
+  </si>
+  <si>
+    <t>Verifying Record: Final Inspection Checksheet</t>
+  </si>
+  <si>
+    <t>6.2 - Dispatch</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria: Inspect delivery dockets and ensure that each item on packing list has been packed and in the correct quantity inclusive of weights</t>
+  </si>
+  <si>
+    <t>Frequency: Per Dispatcj</t>
+  </si>
+  <si>
+    <t>Verifying Record: Dispatch Docket</t>
   </si>
 </sst>
 </file>
@@ -235,7 +772,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,6 +963,29 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5D5E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -587,11 +1147,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -947,10 +1515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H413"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,7 +1526,7 @@
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="148.140625" style="1" customWidth="1"/>
     <col min="3" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="26.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="52.7109375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -990,10 +1558,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -1003,66 +1571,3305 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>10</v>
+      </c>
+      <c r="B119" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>10</v>
+      </c>
+      <c r="B120" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>10</v>
+      </c>
+      <c r="B121" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>10</v>
+      </c>
+      <c r="B131" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>10</v>
+      </c>
+      <c r="B132" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>10</v>
+      </c>
+      <c r="B133" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>10</v>
+      </c>
+      <c r="B134" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B137" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>10</v>
+      </c>
+      <c r="B138" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>10</v>
+      </c>
+      <c r="B142" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>10</v>
+      </c>
+      <c r="B143" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>10</v>
+      </c>
+      <c r="B144" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>10</v>
+      </c>
+      <c r="B145" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>10</v>
+      </c>
+      <c r="B147" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>10</v>
+      </c>
+      <c r="B154" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>10</v>
+      </c>
+      <c r="B155" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>10</v>
+      </c>
+      <c r="B156" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>10</v>
+      </c>
+      <c r="B157" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>10</v>
+      </c>
+      <c r="B158" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>10</v>
+      </c>
+      <c r="B160" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>10</v>
+      </c>
+      <c r="B163" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>10</v>
+      </c>
+      <c r="B164" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>10</v>
+      </c>
+      <c r="B167" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>10</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>10</v>
+      </c>
+      <c r="B169" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>10</v>
+      </c>
+      <c r="B170" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>10</v>
+      </c>
+      <c r="B171" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>10</v>
+      </c>
+      <c r="B172" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>10</v>
+      </c>
+      <c r="B173" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>10</v>
+      </c>
+      <c r="B174" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>10</v>
+      </c>
+      <c r="B177" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>10</v>
+      </c>
+      <c r="B178" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>10</v>
+      </c>
+      <c r="B179" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>10</v>
+      </c>
+      <c r="B180" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>10</v>
+      </c>
+      <c r="B181" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>10</v>
+      </c>
+      <c r="B182" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>10</v>
+      </c>
+      <c r="B183" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>10</v>
+      </c>
+      <c r="B184" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>10</v>
+      </c>
+      <c r="B187" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>10</v>
+      </c>
+      <c r="B188" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>10</v>
+      </c>
+      <c r="B189" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>10</v>
+      </c>
+      <c r="B190" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>10</v>
+      </c>
+      <c r="B191" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>10</v>
+      </c>
+      <c r="B192" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>10</v>
+      </c>
+      <c r="B193" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>10</v>
+      </c>
+      <c r="B194" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>10</v>
+      </c>
+      <c r="B197" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>10</v>
+      </c>
+      <c r="B198" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>10</v>
+      </c>
+      <c r="B199" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>10</v>
+      </c>
+      <c r="B200" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>10</v>
+      </c>
+      <c r="B201" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>10</v>
+      </c>
+      <c r="B202" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>10</v>
+      </c>
+      <c r="B203" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>10</v>
+      </c>
+      <c r="B204" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>10</v>
+      </c>
+      <c r="B205" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>10</v>
+      </c>
+      <c r="B206" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>10</v>
+      </c>
+      <c r="B209" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>10</v>
+      </c>
+      <c r="B210" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>10</v>
+      </c>
+      <c r="B211" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>10</v>
+      </c>
+      <c r="B212" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>10</v>
+      </c>
+      <c r="B213" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>10</v>
+      </c>
+      <c r="B214" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>10</v>
+      </c>
+      <c r="B215" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>10</v>
+      </c>
+      <c r="B218" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>10</v>
+      </c>
+      <c r="B219" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>10</v>
+      </c>
+      <c r="B220" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>10</v>
+      </c>
+      <c r="B221" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>10</v>
+      </c>
+      <c r="B222" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>10</v>
+      </c>
+      <c r="B223" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>10</v>
+      </c>
+      <c r="B224" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>10</v>
+      </c>
+      <c r="B225" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>10</v>
+      </c>
+      <c r="B229" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>10</v>
+      </c>
+      <c r="B230" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>10</v>
+      </c>
+      <c r="B231" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>10</v>
+      </c>
+      <c r="B232" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>10</v>
+      </c>
+      <c r="B233" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>10</v>
+      </c>
+      <c r="B234" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>10</v>
+      </c>
+      <c r="B235" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>10</v>
+      </c>
+      <c r="B236" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>10</v>
+      </c>
+      <c r="B239" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>10</v>
+      </c>
+      <c r="B240" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>10</v>
+      </c>
+      <c r="B241" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>10</v>
+      </c>
+      <c r="B242" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>10</v>
+      </c>
+      <c r="B243" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>10</v>
+      </c>
+      <c r="B244" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>10</v>
+      </c>
+      <c r="B245" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>10</v>
+      </c>
+      <c r="B246" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>10</v>
+      </c>
+      <c r="B249" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>10</v>
+      </c>
+      <c r="B250" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>10</v>
+      </c>
+      <c r="B251" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>10</v>
+      </c>
+      <c r="B252" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>10</v>
+      </c>
+      <c r="B253" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>10</v>
+      </c>
+      <c r="B254" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>10</v>
+      </c>
+      <c r="B255" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>10</v>
+      </c>
+      <c r="B256" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>10</v>
+      </c>
+      <c r="B259" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>10</v>
+      </c>
+      <c r="B260" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>10</v>
+      </c>
+      <c r="B261" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>10</v>
+      </c>
+      <c r="B262" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>10</v>
+      </c>
+      <c r="B263" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>10</v>
+      </c>
+      <c r="B264" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>10</v>
+      </c>
+      <c r="B265" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>10</v>
+      </c>
+      <c r="B266" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>10</v>
+      </c>
+      <c r="B269" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>10</v>
+      </c>
+      <c r="B270" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>10</v>
+      </c>
+      <c r="B271" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>10</v>
+      </c>
+      <c r="B272" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>10</v>
+      </c>
+      <c r="B273" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>10</v>
+      </c>
+      <c r="B274" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>10</v>
+      </c>
+      <c r="B275" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>10</v>
+      </c>
+      <c r="B276" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>10</v>
+      </c>
+      <c r="B279" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>10</v>
+      </c>
+      <c r="B280" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>10</v>
+      </c>
+      <c r="B281" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>10</v>
+      </c>
+      <c r="B282" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>10</v>
+      </c>
+      <c r="B283" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>10</v>
+      </c>
+      <c r="B284" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>10</v>
+      </c>
+      <c r="B285" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>10</v>
+      </c>
+      <c r="B286" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>10</v>
+      </c>
+      <c r="B291" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>10</v>
+      </c>
+      <c r="B292" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>10</v>
+      </c>
+      <c r="B293" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>10</v>
+      </c>
+      <c r="B294" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>10</v>
+      </c>
+      <c r="B295" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>10</v>
+      </c>
+      <c r="B296" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>10</v>
+      </c>
+      <c r="B297" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>10</v>
+      </c>
+      <c r="B298" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>10</v>
+      </c>
+      <c r="B302" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>10</v>
+      </c>
+      <c r="B303" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>10</v>
+      </c>
+      <c r="B304" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>10</v>
+      </c>
+      <c r="B305" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>10</v>
+      </c>
+      <c r="B306" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>10</v>
+      </c>
+      <c r="B307" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>10</v>
+      </c>
+      <c r="B308" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>10</v>
+      </c>
+      <c r="B309" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B311" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>10</v>
+      </c>
+      <c r="B313" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>10</v>
+      </c>
+      <c r="B314" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>10</v>
+      </c>
+      <c r="B315" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>10</v>
+      </c>
+      <c r="B316" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>10</v>
+      </c>
+      <c r="B317" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>10</v>
+      </c>
+      <c r="B318" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>10</v>
+      </c>
+      <c r="B319" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>10</v>
+      </c>
+      <c r="B320" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>10</v>
+      </c>
+      <c r="B324" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>10</v>
+      </c>
+      <c r="B325" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>10</v>
+      </c>
+      <c r="B326" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>10</v>
+      </c>
+      <c r="B327" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>10</v>
+      </c>
+      <c r="B328" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>10</v>
+      </c>
+      <c r="B329" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>10</v>
+      </c>
+      <c r="B330" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>10</v>
+      </c>
+      <c r="B331" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>10</v>
+      </c>
+      <c r="B332" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>10</v>
+      </c>
+      <c r="B336" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>10</v>
+      </c>
+      <c r="B337" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>10</v>
+      </c>
+      <c r="B338" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>10</v>
+      </c>
+      <c r="B339" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>10</v>
+      </c>
+      <c r="B340" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>10</v>
+      </c>
+      <c r="B341" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>10</v>
+      </c>
+      <c r="B342" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>10</v>
+      </c>
+      <c r="B343" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>10</v>
+      </c>
+      <c r="B344" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B346" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>10</v>
+      </c>
+      <c r="B348" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>10</v>
+      </c>
+      <c r="B349" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>10</v>
+      </c>
+      <c r="B350" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>10</v>
+      </c>
+      <c r="B351" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>10</v>
+      </c>
+      <c r="B352" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>10</v>
+      </c>
+      <c r="B353" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>10</v>
+      </c>
+      <c r="B354" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>10</v>
+      </c>
+      <c r="B355" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>10</v>
+      </c>
+      <c r="B356" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B358" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>10</v>
+      </c>
+      <c r="B360" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>10</v>
+      </c>
+      <c r="B361" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>10</v>
+      </c>
+      <c r="B362" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>10</v>
+      </c>
+      <c r="B363" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>10</v>
+      </c>
+      <c r="B364" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>10</v>
+      </c>
+      <c r="B365" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>10</v>
+      </c>
+      <c r="B366" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>10</v>
+      </c>
+      <c r="B367" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>10</v>
+      </c>
+      <c r="B368" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B370" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>10</v>
+      </c>
+      <c r="B372" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>10</v>
+      </c>
+      <c r="B373" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>10</v>
+      </c>
+      <c r="B374" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>10</v>
+      </c>
+      <c r="B375" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>10</v>
+      </c>
+      <c r="B376" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>10</v>
+      </c>
+      <c r="B377" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>10</v>
+      </c>
+      <c r="B378" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>10</v>
+      </c>
+      <c r="B379" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B381" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>10</v>
+      </c>
+      <c r="B383" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>10</v>
+      </c>
+      <c r="B384" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>10</v>
+      </c>
+      <c r="B385" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>10</v>
+      </c>
+      <c r="B386" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>10</v>
+      </c>
+      <c r="B387" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>10</v>
+      </c>
+      <c r="B388" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>10</v>
+      </c>
+      <c r="B389" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>10</v>
+      </c>
+      <c r="B390" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B392" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>10</v>
+      </c>
+      <c r="B394" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>10</v>
+      </c>
+      <c r="B395" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>10</v>
+      </c>
+      <c r="B396" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>10</v>
+      </c>
+      <c r="B397" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>10</v>
+      </c>
+      <c r="B398" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>10</v>
+      </c>
+      <c r="B399" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>10</v>
+      </c>
+      <c r="B400" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>10</v>
+      </c>
+      <c r="B401" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B403" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B404" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B405" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B406" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B407" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B408" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B409" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B410" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B411" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B412" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B413" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:H413" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
